--- a/www.eia.gov/forecasts/steo/xls/Fig32.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig32.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>World</t>
@@ -143,7 +143,7 @@
     <t>2018-Q4</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -469,88 +469,88 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1.3222679766000001</c:v>
+                  <c:v>0.73905304256000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37578415298000001</c:v>
+                  <c:v>0.16626009423999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.71547485981000003</c:v>
+                  <c:v>-1.0753551027999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.84308667876999999</c:v>
+                  <c:v>-1.5669071974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.52232066148</c:v>
+                  <c:v>-1.1175830953999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.10996257278</c:v>
+                  <c:v>-0.60246278483000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.53904894153000005</c:v>
+                  <c:v>-1.2222915831000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.70050074552999997</c:v>
+                  <c:v>-1.3542471661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5293381622E-2</c:v>
+                  <c:v>-0.61599950595999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82466763241999996</c:v>
+                  <c:v>-4.6192939900000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76449620482000002</c:v>
+                  <c:v>0.32475286288999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.566047821</c:v>
+                  <c:v>1.1891311483</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5820757215000001</c:v>
+                  <c:v>1.5159842051000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3811383725000002</c:v>
+                  <c:v>1.9642658061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4840692832</c:v>
+                  <c:v>1.4503978367999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5519718117000001</c:v>
+                  <c:v>2.1439670141999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7114398209999999</c:v>
+                  <c:v>1.4634528198000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25027759279</c:v>
+                  <c:v>0.40236040279000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.51138423035000002</c:v>
+                  <c:v>-0.4186807743</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0377211953000001</c:v>
+                  <c:v>1.5606792053</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64701704504000002</c:v>
+                  <c:v>-0.20809501960999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24509302029999999</c:v>
+                  <c:v>-2.7221482158999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.36742941779999999</c:v>
+                  <c:v>-0.44780614206000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.80401569891000002</c:v>
+                  <c:v>0.45166854650999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43380254809000002</c:v>
+                  <c:v>0.11564157606</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.41086519420000001</c:v>
+                  <c:v>0.64851244425999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.61775778885999999</c:v>
+                  <c:v>-0.22702463140000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.36950288571000001</c:v>
+                  <c:v>0.32698944314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,8 +565,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="446446576"/>
-        <c:axId val="446453296"/>
+        <c:axId val="641955776"/>
+        <c:axId val="641955216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -686,88 +686,88 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>90.477174477999995</c:v>
+                  <c:v>90.615488103999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.302759039999998</c:v>
+                  <c:v>90.450962777000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.325618453000004</c:v>
+                  <c:v>90.557449757000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.786177443</c:v>
+                  <c:v>91.001595703999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.788399814000002</c:v>
+                  <c:v>90.049844258999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.922070962000006</c:v>
+                  <c:v>91.249070962000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.519639205000004</c:v>
+                  <c:v>91.814030509000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.602374024</c:v>
+                  <c:v>91.863069675999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.929678856999999</c:v>
+                  <c:v>92.256456635000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.596061219000006</c:v>
+                  <c:v>92.940610668999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.883453141999993</c:v>
+                  <c:v>94.310605315999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95.211336126000006</c:v>
+                  <c:v>95.780064386999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.991316206999997</c:v>
+                  <c:v>95.573163984000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.913787760999995</c:v>
+                  <c:v>96.559370178999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.751613153999998</c:v>
+                  <c:v>97.485330544999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.88332887</c:v>
+                  <c:v>97.670774522000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95.977345662999994</c:v>
+                  <c:v>96.823780651999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.683254861999998</c:v>
+                  <c:v>96.489593322999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>96.271448969999994</c:v>
+                  <c:v>97.041797590000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.833342842999997</c:v>
+                  <c:v>98.501512758000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96.432393695000002</c:v>
+                  <c:v>96.775541509999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.262093110999999</c:v>
+                  <c:v>97.696307489000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.024592552000001</c:v>
+                  <c:v>98.547778953999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.367454596000002</c:v>
+                  <c:v>99.073255919999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.78491305</c:v>
+                  <c:v>98.693963736000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98.948950292000006</c:v>
+                  <c:v>99.829087755000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>99.261012238999996</c:v>
+                  <c:v>100.09266555000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.403300771999994</c:v>
+                  <c:v>100.40464325000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,88 +889,88 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>89.154906500999999</c:v>
+                  <c:v>89.876435060999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.926974887</c:v>
+                  <c:v>90.284702682000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.041093312000001</c:v>
+                  <c:v>91.632804859999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.629264121999995</c:v>
+                  <c:v>92.568502902000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.310720476</c:v>
+                  <c:v>91.167427353999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.032033534999997</c:v>
+                  <c:v>91.851533747000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.058688145999994</c:v>
+                  <c:v>93.036322092000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.302874768999999</c:v>
+                  <c:v>93.217316842000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.914385476000007</c:v>
+                  <c:v>92.872456141000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.771393586000002</c:v>
+                  <c:v>92.945229963000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.118956936999993</c:v>
+                  <c:v>93.985852453000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.645288304999994</c:v>
+                  <c:v>94.590933238000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.409240484999998</c:v>
+                  <c:v>94.057179778999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.532649388999999</c:v>
+                  <c:v>94.595104372999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.267543869999997</c:v>
+                  <c:v>96.034932707999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.331357057999995</c:v>
+                  <c:v>95.526807508000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94.265905841999995</c:v>
+                  <c:v>95.360327831999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.432977269000006</c:v>
+                  <c:v>96.087232920999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>96.782833199999999</c:v>
+                  <c:v>97.460478365</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95.795621647999994</c:v>
+                  <c:v>96.940833552000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95.785376650000003</c:v>
+                  <c:v>96.983636528999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.017000089999996</c:v>
+                  <c:v>97.723528970999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.392021968999998</c:v>
+                  <c:v>98.995585095999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97.563438896999997</c:v>
+                  <c:v>98.621587374000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.351110500999994</c:v>
+                  <c:v>98.578322159999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98.538085097000007</c:v>
+                  <c:v>99.180575309999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>99.878770028000005</c:v>
+                  <c:v>100.31969019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.033797887000006</c:v>
+                  <c:v>100.07765381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,8 +987,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446456656"/>
-        <c:axId val="446440976"/>
+        <c:axId val="641954096"/>
+        <c:axId val="641954656"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1106,11 +1106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446456656"/>
-        <c:axId val="446440976"/>
+        <c:axId val="641954096"/>
+        <c:axId val="641954656"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="446456656"/>
+        <c:axId val="641954096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446440976"/>
+        <c:crossAx val="641954656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1129,7 +1129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446440976"/>
+        <c:axId val="641954656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="102"/>
@@ -1157,13 +1157,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446456656"/>
+        <c:crossAx val="641954096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446453296"/>
+        <c:axId val="641955216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1180,12 +1180,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446446576"/>
+        <c:crossAx val="641955776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446446576"/>
+        <c:axId val="641955776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446453296"/>
+        <c:crossAx val="641955216"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1344,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
@@ -1478,13 +1478,13 @@
             <v>2012-Q1</v>
           </cell>
           <cell r="C28">
-            <v>90.477174477999995</v>
+            <v>90.615488103999994</v>
           </cell>
           <cell r="D28">
-            <v>89.154906500999999</v>
+            <v>89.876435060999995</v>
           </cell>
           <cell r="E28">
-            <v>1.3222679766000001</v>
+            <v>0.73905304256000004</v>
           </cell>
         </row>
         <row r="29">
@@ -1492,13 +1492,13 @@
             <v>2012-Q2</v>
           </cell>
           <cell r="C29">
-            <v>90.302759039999998</v>
+            <v>90.450962777000001</v>
           </cell>
           <cell r="D29">
-            <v>89.926974887</v>
+            <v>90.284702682000002</v>
           </cell>
           <cell r="E29">
-            <v>0.37578415298000001</v>
+            <v>0.16626009423999999</v>
           </cell>
         </row>
         <row r="30">
@@ -1506,13 +1506,13 @@
             <v>2012-Q3</v>
           </cell>
           <cell r="C30">
-            <v>90.325618453000004</v>
+            <v>90.557449757000001</v>
           </cell>
           <cell r="D30">
-            <v>91.041093312000001</v>
+            <v>91.632804859999993</v>
           </cell>
           <cell r="E30">
-            <v>-0.71547485981000003</v>
+            <v>-1.0753551027999999</v>
           </cell>
         </row>
         <row r="31">
@@ -1520,13 +1520,13 @@
             <v>2012-Q4</v>
           </cell>
           <cell r="C31">
-            <v>90.786177443</v>
+            <v>91.001595703999996</v>
           </cell>
           <cell r="D31">
-            <v>91.629264121999995</v>
+            <v>92.568502902000006</v>
           </cell>
           <cell r="E31">
-            <v>-0.84308667876999999</v>
+            <v>-1.5669071974</v>
           </cell>
         </row>
         <row r="32">
@@ -1534,13 +1534,13 @@
             <v>2013-Q1</v>
           </cell>
           <cell r="C32">
-            <v>89.788399814000002</v>
+            <v>90.049844258999997</v>
           </cell>
           <cell r="D32">
-            <v>90.310720476</v>
+            <v>91.167427353999997</v>
           </cell>
           <cell r="E32">
-            <v>-0.52232066148</v>
+            <v>-1.1175830953999999</v>
           </cell>
         </row>
         <row r="33">
@@ -1548,13 +1548,13 @@
             <v>2013-Q2</v>
           </cell>
           <cell r="C33">
-            <v>90.922070962000006</v>
+            <v>91.249070962000005</v>
           </cell>
           <cell r="D33">
-            <v>91.032033534999997</v>
+            <v>91.851533747000005</v>
           </cell>
           <cell r="E33">
-            <v>-0.10996257278</v>
+            <v>-0.60246278483000004</v>
           </cell>
         </row>
         <row r="34">
@@ -1562,13 +1562,13 @@
             <v>2013-Q3</v>
           </cell>
           <cell r="C34">
-            <v>91.519639205000004</v>
+            <v>91.814030509000006</v>
           </cell>
           <cell r="D34">
-            <v>92.058688145999994</v>
+            <v>93.036322092000006</v>
           </cell>
           <cell r="E34">
-            <v>-0.53904894153000005</v>
+            <v>-1.2222915831000001</v>
           </cell>
         </row>
         <row r="35">
@@ -1576,13 +1576,13 @@
             <v>2013-Q4</v>
           </cell>
           <cell r="C35">
-            <v>91.602374024</v>
+            <v>91.863069675999995</v>
           </cell>
           <cell r="D35">
-            <v>92.302874768999999</v>
+            <v>93.217316842000002</v>
           </cell>
           <cell r="E35">
-            <v>-0.70050074552999997</v>
+            <v>-1.3542471661</v>
           </cell>
         </row>
         <row r="36">
@@ -1590,13 +1590,13 @@
             <v>2014-Q1</v>
           </cell>
           <cell r="C36">
-            <v>91.929678856999999</v>
+            <v>92.256456635000006</v>
           </cell>
           <cell r="D36">
-            <v>91.914385476000007</v>
+            <v>92.872456141000001</v>
           </cell>
           <cell r="E36">
-            <v>1.5293381622E-2</v>
+            <v>-0.61599950595999997</v>
           </cell>
         </row>
         <row r="37">
@@ -1604,13 +1604,13 @@
             <v>2014-Q2</v>
           </cell>
           <cell r="C37">
-            <v>92.596061219000006</v>
+            <v>92.940610668999994</v>
           </cell>
           <cell r="D37">
-            <v>91.771393586000002</v>
+            <v>92.945229963000003</v>
           </cell>
           <cell r="E37">
-            <v>0.82466763241999996</v>
+            <v>-4.6192939900000004E-3</v>
           </cell>
         </row>
         <row r="38">
@@ -1618,13 +1618,13 @@
             <v>2014-Q3</v>
           </cell>
           <cell r="C38">
-            <v>93.883453141999993</v>
+            <v>94.310605315999993</v>
           </cell>
           <cell r="D38">
-            <v>93.118956936999993</v>
+            <v>93.985852453000007</v>
           </cell>
           <cell r="E38">
-            <v>0.76449620482000002</v>
+            <v>0.32475286288999999</v>
           </cell>
         </row>
         <row r="39">
@@ -1632,13 +1632,13 @@
             <v>2014-Q4</v>
           </cell>
           <cell r="C39">
-            <v>95.211336126000006</v>
+            <v>95.780064386999996</v>
           </cell>
           <cell r="D39">
-            <v>93.645288304999994</v>
+            <v>94.590933238000005</v>
           </cell>
           <cell r="E39">
-            <v>1.566047821</v>
+            <v>1.1891311483</v>
           </cell>
         </row>
         <row r="40">
@@ -1646,13 +1646,13 @@
             <v>2015-Q1</v>
           </cell>
           <cell r="C40">
-            <v>94.991316206999997</v>
+            <v>95.573163984000004</v>
           </cell>
           <cell r="D40">
-            <v>93.409240484999998</v>
+            <v>94.057179778999995</v>
           </cell>
           <cell r="E40">
-            <v>1.5820757215000001</v>
+            <v>1.5159842051000001</v>
           </cell>
         </row>
         <row r="41">
@@ -1660,13 +1660,13 @@
             <v>2015-Q2</v>
           </cell>
           <cell r="C41">
-            <v>95.913787760999995</v>
+            <v>96.559370178999998</v>
           </cell>
           <cell r="D41">
-            <v>93.532649388999999</v>
+            <v>94.595104372999998</v>
           </cell>
           <cell r="E41">
-            <v>2.3811383725000002</v>
+            <v>1.9642658061</v>
           </cell>
         </row>
         <row r="42">
@@ -1674,13 +1674,13 @@
             <v>2015-Q3</v>
           </cell>
           <cell r="C42">
-            <v>96.751613153999998</v>
+            <v>97.485330544999997</v>
           </cell>
           <cell r="D42">
-            <v>95.267543869999997</v>
+            <v>96.034932707999999</v>
           </cell>
           <cell r="E42">
-            <v>1.4840692832</v>
+            <v>1.4503978367999999</v>
           </cell>
         </row>
         <row r="43">
@@ -1688,13 +1688,13 @@
             <v>2015-Q4</v>
           </cell>
           <cell r="C43">
-            <v>96.88332887</v>
+            <v>97.670774522000002</v>
           </cell>
           <cell r="D43">
-            <v>94.331357057999995</v>
+            <v>95.526807508000005</v>
           </cell>
           <cell r="E43">
-            <v>2.5519718117000001</v>
+            <v>2.1439670141999998</v>
           </cell>
         </row>
         <row r="44">
@@ -1702,13 +1702,13 @@
             <v>2016-Q1</v>
           </cell>
           <cell r="C44">
-            <v>95.977345662999994</v>
+            <v>96.823780651999996</v>
           </cell>
           <cell r="D44">
-            <v>94.265905841999995</v>
+            <v>95.360327831999996</v>
           </cell>
           <cell r="E44">
-            <v>1.7114398209999999</v>
+            <v>1.4634528198000001</v>
           </cell>
         </row>
         <row r="45">
@@ -1716,13 +1716,13 @@
             <v>2016-Q2</v>
           </cell>
           <cell r="C45">
-            <v>95.683254861999998</v>
+            <v>96.489593322999994</v>
           </cell>
           <cell r="D45">
-            <v>95.432977269000006</v>
+            <v>96.087232920999995</v>
           </cell>
           <cell r="E45">
-            <v>0.25027759279</v>
+            <v>0.40236040279000002</v>
           </cell>
         </row>
         <row r="46">
@@ -1730,13 +1730,13 @@
             <v>2016-Q3</v>
           </cell>
           <cell r="C46">
-            <v>96.271448969999994</v>
+            <v>97.041797590000002</v>
           </cell>
           <cell r="D46">
-            <v>96.782833199999999</v>
+            <v>97.460478365</v>
           </cell>
           <cell r="E46">
-            <v>-0.51138423035000002</v>
+            <v>-0.4186807743</v>
           </cell>
         </row>
         <row r="47">
@@ -1744,13 +1744,13 @@
             <v>2016-Q4</v>
           </cell>
           <cell r="C47">
-            <v>97.833342842999997</v>
+            <v>98.501512758000004</v>
           </cell>
           <cell r="D47">
-            <v>95.795621647999994</v>
+            <v>96.940833552000001</v>
           </cell>
           <cell r="E47">
-            <v>2.0377211953000001</v>
+            <v>1.5606792053</v>
           </cell>
         </row>
         <row r="48">
@@ -1758,13 +1758,13 @@
             <v>2017-Q1</v>
           </cell>
           <cell r="C48">
-            <v>96.432393695000002</v>
+            <v>96.775541509999996</v>
           </cell>
           <cell r="D48">
-            <v>95.785376650000003</v>
+            <v>96.983636528999995</v>
           </cell>
           <cell r="E48">
-            <v>0.64701704504000002</v>
+            <v>-0.20809501960999999</v>
           </cell>
         </row>
         <row r="49">
@@ -1772,13 +1772,13 @@
             <v>2017-Q2</v>
           </cell>
           <cell r="C49">
-            <v>97.262093110999999</v>
+            <v>97.696307489000006</v>
           </cell>
           <cell r="D49">
-            <v>97.017000089999996</v>
+            <v>97.723528970999993</v>
           </cell>
           <cell r="E49">
-            <v>0.24509302029999999</v>
+            <v>-2.7221482158999999E-2</v>
           </cell>
         </row>
         <row r="50">
@@ -1786,13 +1786,13 @@
             <v>2017-Q3</v>
           </cell>
           <cell r="C50">
-            <v>98.024592552000001</v>
+            <v>98.547778953999995</v>
           </cell>
           <cell r="D50">
-            <v>98.392021968999998</v>
+            <v>98.995585095999999</v>
           </cell>
           <cell r="E50">
-            <v>-0.36742941779999999</v>
+            <v>-0.44780614206000002</v>
           </cell>
         </row>
         <row r="51">
@@ -1800,13 +1800,13 @@
             <v>2017-Q4</v>
           </cell>
           <cell r="C51">
-            <v>98.367454596000002</v>
+            <v>99.073255919999994</v>
           </cell>
           <cell r="D51">
-            <v>97.563438896999997</v>
+            <v>98.621587374000001</v>
           </cell>
           <cell r="E51">
-            <v>0.80401569891000002</v>
+            <v>0.45166854650999999</v>
           </cell>
         </row>
         <row r="52">
@@ -1814,13 +1814,13 @@
             <v>2018-Q1</v>
           </cell>
           <cell r="C52">
-            <v>97.78491305</v>
+            <v>98.693963736000001</v>
           </cell>
           <cell r="D52">
-            <v>97.351110500999994</v>
+            <v>98.578322159999999</v>
           </cell>
           <cell r="E52">
-            <v>0.43380254809000002</v>
+            <v>0.11564157606</v>
           </cell>
         </row>
         <row r="53">
@@ -1828,13 +1828,13 @@
             <v>2018-Q2</v>
           </cell>
           <cell r="C53">
-            <v>98.948950292000006</v>
+            <v>99.829087755000003</v>
           </cell>
           <cell r="D53">
-            <v>98.538085097000007</v>
+            <v>99.180575309999995</v>
           </cell>
           <cell r="E53">
-            <v>0.41086519420000001</v>
+            <v>0.64851244425999999</v>
           </cell>
         </row>
         <row r="54">
@@ -1842,13 +1842,13 @@
             <v>2018-Q3</v>
           </cell>
           <cell r="C54">
-            <v>99.261012238999996</v>
+            <v>100.09266555000001</v>
           </cell>
           <cell r="D54">
-            <v>99.878770028000005</v>
+            <v>100.31969019</v>
           </cell>
           <cell r="E54">
-            <v>-0.61775778885999999</v>
+            <v>-0.22702463140000001</v>
           </cell>
         </row>
         <row r="55">
@@ -1856,13 +1856,13 @@
             <v>2018-Q4</v>
           </cell>
           <cell r="C55">
-            <v>99.403300771999994</v>
+            <v>100.40464325000001</v>
           </cell>
           <cell r="D55">
-            <v>99.033797887000006</v>
+            <v>100.07765381</v>
           </cell>
           <cell r="E55">
-            <v>0.36950288571000001</v>
+            <v>0.32698944314</v>
           </cell>
         </row>
         <row r="58">
@@ -2257,13 +2257,13 @@
         <v>40909</v>
       </c>
       <c r="C28" s="13">
-        <v>90.477174477999995</v>
+        <v>90.615488103999994</v>
       </c>
       <c r="D28" s="13">
-        <v>89.154906500999999</v>
+        <v>89.876435060999995</v>
       </c>
       <c r="E28" s="13">
-        <v>1.3222679766000001</v>
+        <v>0.73905304256000004</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,13 +2274,13 @@
         <v>41000</v>
       </c>
       <c r="C29" s="13">
-        <v>90.302759039999998</v>
+        <v>90.450962777000001</v>
       </c>
       <c r="D29" s="13">
-        <v>89.926974887</v>
+        <v>90.284702682000002</v>
       </c>
       <c r="E29" s="13">
-        <v>0.37578415298000001</v>
+        <v>0.16626009423999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,13 +2291,13 @@
         <v>41091</v>
       </c>
       <c r="C30" s="13">
-        <v>90.325618453000004</v>
+        <v>90.557449757000001</v>
       </c>
       <c r="D30" s="13">
-        <v>91.041093312000001</v>
+        <v>91.632804859999993</v>
       </c>
       <c r="E30" s="13">
-        <v>-0.71547485981000003</v>
+        <v>-1.0753551027999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,13 +2308,13 @@
         <v>41183</v>
       </c>
       <c r="C31" s="13">
-        <v>90.786177443</v>
+        <v>91.001595703999996</v>
       </c>
       <c r="D31" s="13">
-        <v>91.629264121999995</v>
+        <v>92.568502902000006</v>
       </c>
       <c r="E31" s="13">
-        <v>-0.84308667876999999</v>
+        <v>-1.5669071974</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,13 +2325,13 @@
         <v>41275</v>
       </c>
       <c r="C32" s="13">
-        <v>89.788399814000002</v>
+        <v>90.049844258999997</v>
       </c>
       <c r="D32" s="13">
-        <v>90.310720476</v>
+        <v>91.167427353999997</v>
       </c>
       <c r="E32" s="13">
-        <v>-0.52232066148</v>
+        <v>-1.1175830953999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,13 +2342,13 @@
         <v>41365</v>
       </c>
       <c r="C33" s="13">
-        <v>90.922070962000006</v>
+        <v>91.249070962000005</v>
       </c>
       <c r="D33" s="13">
-        <v>91.032033534999997</v>
+        <v>91.851533747000005</v>
       </c>
       <c r="E33" s="13">
-        <v>-0.10996257278</v>
+        <v>-0.60246278483000004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,13 +2359,13 @@
         <v>41456</v>
       </c>
       <c r="C34" s="13">
-        <v>91.519639205000004</v>
+        <v>91.814030509000006</v>
       </c>
       <c r="D34" s="13">
-        <v>92.058688145999994</v>
+        <v>93.036322092000006</v>
       </c>
       <c r="E34" s="13">
-        <v>-0.53904894153000005</v>
+        <v>-1.2222915831000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,13 +2376,13 @@
         <v>41548</v>
       </c>
       <c r="C35" s="13">
-        <v>91.602374024</v>
+        <v>91.863069675999995</v>
       </c>
       <c r="D35" s="13">
-        <v>92.302874768999999</v>
+        <v>93.217316842000002</v>
       </c>
       <c r="E35" s="13">
-        <v>-0.70050074552999997</v>
+        <v>-1.3542471661</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,13 +2393,13 @@
         <v>41640</v>
       </c>
       <c r="C36" s="13">
-        <v>91.929678856999999</v>
+        <v>92.256456635000006</v>
       </c>
       <c r="D36" s="13">
-        <v>91.914385476000007</v>
+        <v>92.872456141000001</v>
       </c>
       <c r="E36" s="13">
-        <v>1.5293381622E-2</v>
+        <v>-0.61599950595999997</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,13 +2410,13 @@
         <v>41730</v>
       </c>
       <c r="C37" s="13">
-        <v>92.596061219000006</v>
+        <v>92.940610668999994</v>
       </c>
       <c r="D37" s="13">
-        <v>91.771393586000002</v>
+        <v>92.945229963000003</v>
       </c>
       <c r="E37" s="13">
-        <v>0.82466763241999996</v>
+        <v>-4.6192939900000004E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,13 +2427,13 @@
         <v>41821</v>
       </c>
       <c r="C38" s="13">
-        <v>93.883453141999993</v>
+        <v>94.310605315999993</v>
       </c>
       <c r="D38" s="13">
-        <v>93.118956936999993</v>
+        <v>93.985852453000007</v>
       </c>
       <c r="E38" s="13">
-        <v>0.76449620482000002</v>
+        <v>0.32475286288999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,13 +2444,13 @@
         <v>41913</v>
       </c>
       <c r="C39" s="13">
-        <v>95.211336126000006</v>
+        <v>95.780064386999996</v>
       </c>
       <c r="D39" s="13">
-        <v>93.645288304999994</v>
+        <v>94.590933238000005</v>
       </c>
       <c r="E39" s="13">
-        <v>1.566047821</v>
+        <v>1.1891311483</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,13 +2461,13 @@
         <v>42005</v>
       </c>
       <c r="C40" s="13">
-        <v>94.991316206999997</v>
+        <v>95.573163984000004</v>
       </c>
       <c r="D40" s="13">
-        <v>93.409240484999998</v>
+        <v>94.057179778999995</v>
       </c>
       <c r="E40" s="13">
-        <v>1.5820757215000001</v>
+        <v>1.5159842051000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,13 +2478,13 @@
         <v>42095</v>
       </c>
       <c r="C41" s="13">
-        <v>95.913787760999995</v>
+        <v>96.559370178999998</v>
       </c>
       <c r="D41" s="13">
-        <v>93.532649388999999</v>
+        <v>94.595104372999998</v>
       </c>
       <c r="E41" s="13">
-        <v>2.3811383725000002</v>
+        <v>1.9642658061</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,13 +2495,13 @@
         <v>42186</v>
       </c>
       <c r="C42" s="13">
-        <v>96.751613153999998</v>
+        <v>97.485330544999997</v>
       </c>
       <c r="D42" s="13">
-        <v>95.267543869999997</v>
+        <v>96.034932707999999</v>
       </c>
       <c r="E42" s="13">
-        <v>1.4840692832</v>
+        <v>1.4503978367999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,13 +2512,13 @@
         <v>42278</v>
       </c>
       <c r="C43" s="13">
-        <v>96.88332887</v>
+        <v>97.670774522000002</v>
       </c>
       <c r="D43" s="13">
-        <v>94.331357057999995</v>
+        <v>95.526807508000005</v>
       </c>
       <c r="E43" s="13">
-        <v>2.5519718117000001</v>
+        <v>2.1439670141999998</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,13 +2529,13 @@
         <v>42370</v>
       </c>
       <c r="C44" s="13">
-        <v>95.977345662999994</v>
+        <v>96.823780651999996</v>
       </c>
       <c r="D44" s="13">
-        <v>94.265905841999995</v>
+        <v>95.360327831999996</v>
       </c>
       <c r="E44" s="13">
-        <v>1.7114398209999999</v>
+        <v>1.4634528198000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,13 +2546,13 @@
         <v>42461</v>
       </c>
       <c r="C45" s="13">
-        <v>95.683254861999998</v>
+        <v>96.489593322999994</v>
       </c>
       <c r="D45" s="13">
-        <v>95.432977269000006</v>
+        <v>96.087232920999995</v>
       </c>
       <c r="E45" s="13">
-        <v>0.25027759279</v>
+        <v>0.40236040279000002</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,13 +2563,13 @@
         <v>42552</v>
       </c>
       <c r="C46" s="13">
-        <v>96.271448969999994</v>
+        <v>97.041797590000002</v>
       </c>
       <c r="D46" s="13">
-        <v>96.782833199999999</v>
+        <v>97.460478365</v>
       </c>
       <c r="E46" s="13">
-        <v>-0.51138423035000002</v>
+        <v>-0.4186807743</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,13 +2580,13 @@
         <v>42644</v>
       </c>
       <c r="C47" s="13">
-        <v>97.833342842999997</v>
+        <v>98.501512758000004</v>
       </c>
       <c r="D47" s="13">
-        <v>95.795621647999994</v>
+        <v>96.940833552000001</v>
       </c>
       <c r="E47" s="13">
-        <v>2.0377211953000001</v>
+        <v>1.5606792053</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2597,13 +2597,13 @@
         <v>42736</v>
       </c>
       <c r="C48" s="13">
-        <v>96.432393695000002</v>
+        <v>96.775541509999996</v>
       </c>
       <c r="D48" s="13">
-        <v>95.785376650000003</v>
+        <v>96.983636528999995</v>
       </c>
       <c r="E48" s="13">
-        <v>0.64701704504000002</v>
+        <v>-0.20809501960999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,13 +2614,13 @@
         <v>42826</v>
       </c>
       <c r="C49" s="13">
-        <v>97.262093110999999</v>
+        <v>97.696307489000006</v>
       </c>
       <c r="D49" s="13">
-        <v>97.017000089999996</v>
+        <v>97.723528970999993</v>
       </c>
       <c r="E49" s="13">
-        <v>0.24509302029999999</v>
+        <v>-2.7221482158999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,13 +2631,13 @@
         <v>42917</v>
       </c>
       <c r="C50" s="13">
-        <v>98.024592552000001</v>
+        <v>98.547778953999995</v>
       </c>
       <c r="D50" s="13">
-        <v>98.392021968999998</v>
+        <v>98.995585095999999</v>
       </c>
       <c r="E50" s="13">
-        <v>-0.36742941779999999</v>
+        <v>-0.44780614206000002</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,13 +2648,13 @@
         <v>43009</v>
       </c>
       <c r="C51" s="13">
-        <v>98.367454596000002</v>
+        <v>99.073255919999994</v>
       </c>
       <c r="D51" s="13">
-        <v>97.563438896999997</v>
+        <v>98.621587374000001</v>
       </c>
       <c r="E51" s="13">
-        <v>0.80401569891000002</v>
+        <v>0.45166854650999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,13 +2665,13 @@
         <v>43101</v>
       </c>
       <c r="C52" s="13">
-        <v>97.78491305</v>
+        <v>98.693963736000001</v>
       </c>
       <c r="D52" s="13">
-        <v>97.351110500999994</v>
+        <v>98.578322159999999</v>
       </c>
       <c r="E52" s="13">
-        <v>0.43380254809000002</v>
+        <v>0.11564157606</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2682,13 +2682,13 @@
         <v>43191</v>
       </c>
       <c r="C53" s="13">
-        <v>98.948950292000006</v>
+        <v>99.829087755000003</v>
       </c>
       <c r="D53" s="13">
-        <v>98.538085097000007</v>
+        <v>99.180575309999995</v>
       </c>
       <c r="E53" s="13">
-        <v>0.41086519420000001</v>
+        <v>0.64851244425999999</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,13 +2699,13 @@
         <v>43282</v>
       </c>
       <c r="C54" s="13">
-        <v>99.261012238999996</v>
+        <v>100.09266555000001</v>
       </c>
       <c r="D54" s="13">
-        <v>99.878770028000005</v>
+        <v>100.31969019</v>
       </c>
       <c r="E54" s="13">
-        <v>-0.61775778885999999</v>
+        <v>-0.22702463140000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,13 +2716,13 @@
         <v>43374</v>
       </c>
       <c r="C55" s="15">
-        <v>99.403300771999994</v>
+        <v>100.40464325000001</v>
       </c>
       <c r="D55" s="15">
-        <v>99.033797887000006</v>
+        <v>100.07765381</v>
       </c>
       <c r="E55" s="15">
-        <v>0.36950288571000001</v>
+        <v>0.32698944314</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
